--- a/data/weddings.xlsx
+++ b/data/weddings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\IronHack\hellas_db_mellon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3D689E-CEDF-448A-AAA1-1EAE6115343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAB3163-B064-4B72-B7B8-0797E74FB17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="full_table" sheetId="4" r:id="rId1"/>
@@ -1757,6 +1757,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="19" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1805,6 +1806,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1817,11 +1824,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1832,16 +1842,6 @@
     <xf numFmtId="46" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5958,12 +5958,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B612F90D-CA32-46E9-B5C2-E7C502AF6B4B}">
   <dimension ref="A1:AZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:52" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="154" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="153" t="s">
@@ -8546,25 +8548,25 @@
         <v>246</v>
       </c>
       <c r="S17" s="106">
-        <v>183</v>
+        <v>1127</v>
       </c>
       <c r="T17" s="106">
         <v>714</v>
       </c>
       <c r="U17" s="106">
-        <v>242</v>
+        <v>523</v>
       </c>
       <c r="V17" s="106">
         <v>419</v>
       </c>
       <c r="W17" s="106">
-        <v>1127</v>
+        <v>183</v>
       </c>
       <c r="X17" s="106">
         <v>890</v>
       </c>
       <c r="Y17" s="106">
-        <v>523</v>
+        <v>242</v>
       </c>
       <c r="Z17" s="106">
         <v>188</v>
@@ -8704,25 +8706,25 @@
         <v>211</v>
       </c>
       <c r="S18" s="106">
-        <v>158</v>
+        <v>1112</v>
       </c>
       <c r="T18" s="106">
         <v>519</v>
       </c>
       <c r="U18" s="106">
-        <v>185</v>
+        <v>475</v>
       </c>
       <c r="V18" s="106">
         <v>377</v>
       </c>
       <c r="W18" s="106">
-        <v>1112</v>
+        <v>158</v>
       </c>
       <c r="X18" s="106">
         <v>792</v>
       </c>
       <c r="Y18" s="106">
-        <v>475</v>
+        <v>185</v>
       </c>
       <c r="Z18" s="106">
         <v>174</v>
@@ -8862,25 +8864,25 @@
         <v>225</v>
       </c>
       <c r="S19" s="106">
-        <v>149</v>
+        <v>1080</v>
       </c>
       <c r="T19" s="106">
         <v>574</v>
       </c>
       <c r="U19" s="106">
-        <v>227</v>
+        <v>469</v>
       </c>
       <c r="V19" s="106">
         <v>399</v>
       </c>
       <c r="W19" s="106">
-        <v>1080</v>
+        <v>149</v>
       </c>
       <c r="X19" s="106">
         <v>800</v>
       </c>
       <c r="Y19" s="106">
-        <v>469</v>
+        <v>227</v>
       </c>
       <c r="Z19" s="106">
         <v>187</v>
@@ -9020,25 +9022,25 @@
         <v>182</v>
       </c>
       <c r="S20" s="106">
-        <v>138</v>
+        <v>978</v>
       </c>
       <c r="T20" s="106">
         <v>529</v>
       </c>
       <c r="U20" s="106">
-        <v>197</v>
+        <v>472</v>
       </c>
       <c r="V20" s="106">
         <v>349</v>
       </c>
       <c r="W20" s="106">
-        <v>978</v>
+        <v>138</v>
       </c>
       <c r="X20" s="106">
         <v>728</v>
       </c>
       <c r="Y20" s="106">
-        <v>472</v>
+        <v>197</v>
       </c>
       <c r="Z20" s="106">
         <v>192</v>
@@ -9178,25 +9180,25 @@
         <v>233</v>
       </c>
       <c r="S21" s="106">
-        <v>152</v>
+        <v>1011</v>
       </c>
       <c r="T21" s="106">
         <v>572</v>
       </c>
       <c r="U21" s="106">
-        <v>201</v>
+        <v>430</v>
       </c>
       <c r="V21" s="106">
         <v>336</v>
       </c>
       <c r="W21" s="106">
-        <v>1011</v>
+        <v>152</v>
       </c>
       <c r="X21" s="106">
         <v>756</v>
       </c>
       <c r="Y21" s="106">
-        <v>430</v>
+        <v>201</v>
       </c>
       <c r="Z21" s="106">
         <v>142</v>
@@ -9336,25 +9338,25 @@
         <v>130</v>
       </c>
       <c r="S22" s="106">
-        <v>86</v>
+        <v>746</v>
       </c>
       <c r="T22" s="106">
         <v>372</v>
       </c>
       <c r="U22" s="106">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="V22" s="106">
         <v>223</v>
       </c>
       <c r="W22" s="106">
-        <v>746</v>
+        <v>86</v>
       </c>
       <c r="X22" s="106">
         <v>530</v>
       </c>
       <c r="Y22" s="106">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="Z22" s="106">
         <v>106</v>
@@ -9495,44 +9497,44 @@
       <c r="D4" s="144"/>
     </row>
     <row r="5" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
     </row>
     <row r="6" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
     </row>
     <row r="7" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
     </row>
     <row r="8" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
     </row>
     <row r="9" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
     </row>
     <row r="10" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="147"/>
@@ -9541,163 +9543,163 @@
       <c r="D10" s="147"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="172" t="s">
+      <c r="A11" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="172"/>
-      <c r="O11" s="172"/>
-      <c r="P11" s="172"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="175"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="176"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:16" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="171" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="154" t="s">
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="154" t="s">
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="156"/>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="157"/>
     </row>
     <row r="15" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="175"/>
-      <c r="B15" s="157" t="s">
+      <c r="A15" s="172"/>
+      <c r="B15" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="159" t="s">
+      <c r="C15" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="161" t="s">
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="157" t="s">
+      <c r="G15" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="159" t="s">
+      <c r="H15" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="161" t="s">
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="157" t="s">
+      <c r="L15" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="159" t="s">
+      <c r="M15" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="161" t="s">
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="162" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="175"/>
-      <c r="B16" s="157"/>
-      <c r="C16" s="164" t="s">
+      <c r="A16" s="172"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="166" t="s">
+      <c r="D16" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="168" t="s">
+      <c r="E16" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="162"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="164" t="s">
+      <c r="F16" s="163"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="166" t="s">
+      <c r="I16" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="168" t="s">
+      <c r="J16" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="162"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="164" t="s">
+      <c r="K16" s="163"/>
+      <c r="L16" s="158"/>
+      <c r="M16" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="166" t="s">
+      <c r="N16" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="168" t="s">
+      <c r="O16" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="162"/>
+      <c r="P16" s="163"/>
     </row>
     <row r="17" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="158"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="158"/>
-      <c r="M17" s="165"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="163"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="164"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="109"/>
@@ -13483,122 +13485,122 @@
     </row>
     <row r="97" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="1:16" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="174" t="s">
+      <c r="A98" s="171" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="154" t="s">
+      <c r="B98" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="C98" s="155"/>
-      <c r="D98" s="155"/>
-      <c r="E98" s="155"/>
-      <c r="F98" s="156"/>
-      <c r="G98" s="154" t="s">
+      <c r="C98" s="156"/>
+      <c r="D98" s="156"/>
+      <c r="E98" s="156"/>
+      <c r="F98" s="157"/>
+      <c r="G98" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="H98" s="155"/>
-      <c r="I98" s="155"/>
-      <c r="J98" s="155"/>
-      <c r="K98" s="156"/>
-      <c r="L98" s="154" t="s">
+      <c r="H98" s="156"/>
+      <c r="I98" s="156"/>
+      <c r="J98" s="156"/>
+      <c r="K98" s="157"/>
+      <c r="L98" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="M98" s="155"/>
-      <c r="N98" s="155"/>
-      <c r="O98" s="155"/>
-      <c r="P98" s="156"/>
+      <c r="M98" s="156"/>
+      <c r="N98" s="156"/>
+      <c r="O98" s="156"/>
+      <c r="P98" s="157"/>
     </row>
     <row r="99" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="175"/>
-      <c r="B99" s="157" t="s">
+      <c r="A99" s="172"/>
+      <c r="B99" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="C99" s="159" t="s">
+      <c r="C99" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="160"/>
-      <c r="E99" s="160"/>
-      <c r="F99" s="161" t="s">
+      <c r="D99" s="161"/>
+      <c r="E99" s="161"/>
+      <c r="F99" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="G99" s="157" t="s">
+      <c r="G99" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="H99" s="159" t="s">
+      <c r="H99" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="I99" s="160"/>
-      <c r="J99" s="160"/>
-      <c r="K99" s="161" t="s">
+      <c r="I99" s="161"/>
+      <c r="J99" s="161"/>
+      <c r="K99" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="L99" s="157" t="s">
+      <c r="L99" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="M99" s="159" t="s">
+      <c r="M99" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="N99" s="160"/>
-      <c r="O99" s="160"/>
-      <c r="P99" s="161" t="s">
+      <c r="N99" s="161"/>
+      <c r="O99" s="161"/>
+      <c r="P99" s="162" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="175"/>
-      <c r="B100" s="157"/>
-      <c r="C100" s="164" t="s">
+      <c r="A100" s="172"/>
+      <c r="B100" s="158"/>
+      <c r="C100" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="166" t="s">
+      <c r="D100" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="168" t="s">
+      <c r="E100" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="F100" s="162"/>
-      <c r="G100" s="157"/>
-      <c r="H100" s="164" t="s">
+      <c r="F100" s="163"/>
+      <c r="G100" s="158"/>
+      <c r="H100" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="I100" s="166" t="s">
+      <c r="I100" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="J100" s="168" t="s">
+      <c r="J100" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="K100" s="162"/>
-      <c r="L100" s="157"/>
-      <c r="M100" s="164" t="s">
+      <c r="K100" s="163"/>
+      <c r="L100" s="158"/>
+      <c r="M100" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="N100" s="166" t="s">
+      <c r="N100" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="168" t="s">
+      <c r="O100" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="P100" s="162"/>
+      <c r="P100" s="163"/>
     </row>
     <row r="101" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B101" s="158"/>
-      <c r="C101" s="165"/>
-      <c r="D101" s="167"/>
-      <c r="E101" s="169"/>
-      <c r="F101" s="163"/>
-      <c r="G101" s="158"/>
-      <c r="H101" s="165"/>
-      <c r="I101" s="167"/>
-      <c r="J101" s="169"/>
-      <c r="K101" s="163"/>
-      <c r="L101" s="158"/>
-      <c r="M101" s="165"/>
-      <c r="N101" s="167"/>
-      <c r="O101" s="169"/>
-      <c r="P101" s="163"/>
+      <c r="B101" s="159"/>
+      <c r="C101" s="166"/>
+      <c r="D101" s="168"/>
+      <c r="E101" s="170"/>
+      <c r="F101" s="164"/>
+      <c r="G101" s="159"/>
+      <c r="H101" s="166"/>
+      <c r="I101" s="168"/>
+      <c r="J101" s="170"/>
+      <c r="K101" s="164"/>
+      <c r="L101" s="159"/>
+      <c r="M101" s="166"/>
+      <c r="N101" s="168"/>
+      <c r="O101" s="170"/>
+      <c r="P101" s="164"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="109"/>
@@ -17382,13 +17384,35 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="L98:P98"/>
-    <mergeCell ref="L99:L101"/>
-    <mergeCell ref="M99:O99"/>
-    <mergeCell ref="P99:P101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="N100:N101"/>
-    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="G99:G101"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K99:K101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="A12:P12"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="G14:K14"/>
     <mergeCell ref="A98:A100"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B15:B17"/>
@@ -17404,35 +17428,13 @@
     <mergeCell ref="E100:E101"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A12:P12"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:P17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="G99:G101"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:K101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="L98:P98"/>
+    <mergeCell ref="L99:L101"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="P99:P101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="O100:O101"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17763,44 +17765,44 @@
       <c r="D4" s="144"/>
     </row>
     <row r="5" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
     </row>
     <row r="6" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
     </row>
     <row r="7" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
     </row>
     <row r="8" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="174" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
     </row>
     <row r="9" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="170" t="s">
+      <c r="A9" s="173" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
+      <c r="B9" s="173"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
     </row>
     <row r="10" spans="1:16" s="146" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="147"/>
@@ -17809,41 +17811,41 @@
       <c r="D10" s="147"/>
     </row>
     <row r="11" spans="1:16" s="81" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="172" t="s">
+      <c r="A11" s="175" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
       <c r="N11" s="148"/>
       <c r="O11" s="148"/>
       <c r="P11" s="148"/>
     </row>
     <row r="12" spans="1:16" s="81" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="176"/>
       <c r="N12" s="149"/>
       <c r="O12" s="149"/>
       <c r="P12" s="149"/>
@@ -17868,47 +17870,47 @@
     </row>
     <row r="14" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="176" t="s">
+      <c r="C14" s="181"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="176" t="s">
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="178"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="182"/>
     </row>
     <row r="15" spans="1:16" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="179" t="s">
+      <c r="C15" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="180"/>
-      <c r="E15" s="181"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="179"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="179" t="s">
+      <c r="G15" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="180"/>
-      <c r="I15" s="181"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="179"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="179" t="s">
+      <c r="K15" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="180"/>
-      <c r="M15" s="181"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="179"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
@@ -21023,47 +21025,47 @@
     <row r="94" spans="1:13" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="96" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="176" t="s">
+      <c r="B96" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="177"/>
-      <c r="D96" s="177"/>
-      <c r="E96" s="178"/>
-      <c r="F96" s="176" t="s">
+      <c r="C96" s="181"/>
+      <c r="D96" s="181"/>
+      <c r="E96" s="182"/>
+      <c r="F96" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="G96" s="177"/>
-      <c r="H96" s="177"/>
-      <c r="I96" s="178"/>
-      <c r="J96" s="176" t="s">
+      <c r="G96" s="181"/>
+      <c r="H96" s="181"/>
+      <c r="I96" s="182"/>
+      <c r="J96" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="K96" s="177"/>
-      <c r="L96" s="177"/>
-      <c r="M96" s="178"/>
+      <c r="K96" s="181"/>
+      <c r="L96" s="181"/>
+      <c r="M96" s="182"/>
     </row>
     <row r="97" spans="1:13" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B97" s="8"/>
-      <c r="C97" s="179" t="s">
+      <c r="C97" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="180"/>
-      <c r="E97" s="181"/>
+      <c r="D97" s="178"/>
+      <c r="E97" s="179"/>
       <c r="F97" s="8"/>
-      <c r="G97" s="179" t="s">
+      <c r="G97" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="H97" s="180"/>
-      <c r="I97" s="181"/>
+      <c r="H97" s="178"/>
+      <c r="I97" s="179"/>
       <c r="J97" s="8"/>
-      <c r="K97" s="179" t="s">
+      <c r="K97" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="L97" s="180"/>
-      <c r="M97" s="181"/>
+      <c r="L97" s="178"/>
+      <c r="M97" s="179"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
@@ -24178,47 +24180,47 @@
     <row r="176" spans="1:13" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="177" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="178" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="176" t="s">
+      <c r="B178" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C178" s="177"/>
-      <c r="D178" s="177"/>
-      <c r="E178" s="178"/>
-      <c r="F178" s="176" t="s">
+      <c r="C178" s="181"/>
+      <c r="D178" s="181"/>
+      <c r="E178" s="182"/>
+      <c r="F178" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="G178" s="177"/>
-      <c r="H178" s="177"/>
-      <c r="I178" s="178"/>
-      <c r="J178" s="176" t="s">
+      <c r="G178" s="181"/>
+      <c r="H178" s="181"/>
+      <c r="I178" s="182"/>
+      <c r="J178" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="K178" s="177"/>
-      <c r="L178" s="177"/>
-      <c r="M178" s="178"/>
+      <c r="K178" s="181"/>
+      <c r="L178" s="181"/>
+      <c r="M178" s="182"/>
     </row>
     <row r="179" spans="1:13" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B179" s="8"/>
-      <c r="C179" s="179" t="s">
+      <c r="C179" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="D179" s="180"/>
-      <c r="E179" s="181"/>
+      <c r="D179" s="178"/>
+      <c r="E179" s="179"/>
       <c r="F179" s="8"/>
-      <c r="G179" s="179" t="s">
+      <c r="G179" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="H179" s="180"/>
-      <c r="I179" s="181"/>
+      <c r="H179" s="178"/>
+      <c r="I179" s="179"/>
       <c r="J179" s="8"/>
-      <c r="K179" s="179" t="s">
+      <c r="K179" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="L179" s="180"/>
-      <c r="M179" s="181"/>
+      <c r="L179" s="178"/>
+      <c r="M179" s="179"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
@@ -27333,47 +27335,47 @@
     <row r="258" spans="1:13" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="259" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="260" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="176" t="s">
+      <c r="B260" s="180" t="s">
         <v>93</v>
       </c>
-      <c r="C260" s="177"/>
-      <c r="D260" s="177"/>
-      <c r="E260" s="178"/>
-      <c r="F260" s="176" t="s">
+      <c r="C260" s="181"/>
+      <c r="D260" s="181"/>
+      <c r="E260" s="182"/>
+      <c r="F260" s="180" t="s">
         <v>94</v>
       </c>
-      <c r="G260" s="177"/>
-      <c r="H260" s="177"/>
-      <c r="I260" s="178"/>
-      <c r="J260" s="176" t="s">
+      <c r="G260" s="181"/>
+      <c r="H260" s="181"/>
+      <c r="I260" s="182"/>
+      <c r="J260" s="180" t="s">
         <v>95</v>
       </c>
-      <c r="K260" s="177"/>
-      <c r="L260" s="177"/>
-      <c r="M260" s="178"/>
+      <c r="K260" s="181"/>
+      <c r="L260" s="181"/>
+      <c r="M260" s="182"/>
     </row>
     <row r="261" spans="1:13" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B261" s="8"/>
-      <c r="C261" s="179" t="s">
+      <c r="C261" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="D261" s="180"/>
-      <c r="E261" s="181"/>
+      <c r="D261" s="178"/>
+      <c r="E261" s="179"/>
       <c r="F261" s="8"/>
-      <c r="G261" s="179" t="s">
+      <c r="G261" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="H261" s="180"/>
-      <c r="I261" s="181"/>
+      <c r="H261" s="178"/>
+      <c r="I261" s="179"/>
       <c r="J261" s="8"/>
-      <c r="K261" s="179" t="s">
+      <c r="K261" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="L261" s="180"/>
-      <c r="M261" s="181"/>
+      <c r="L261" s="178"/>
+      <c r="M261" s="179"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="9" t="s">
@@ -30488,47 +30490,47 @@
     <row r="340" spans="1:13" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="341" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="342" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="176" t="s">
+      <c r="B342" s="180" t="s">
         <v>96</v>
       </c>
-      <c r="C342" s="177"/>
-      <c r="D342" s="177"/>
-      <c r="E342" s="178"/>
-      <c r="F342" s="176" t="s">
+      <c r="C342" s="181"/>
+      <c r="D342" s="181"/>
+      <c r="E342" s="182"/>
+      <c r="F342" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="G342" s="177"/>
-      <c r="H342" s="177"/>
-      <c r="I342" s="178"/>
-      <c r="J342" s="176" t="s">
+      <c r="G342" s="181"/>
+      <c r="H342" s="181"/>
+      <c r="I342" s="182"/>
+      <c r="J342" s="180" t="s">
         <v>100</v>
       </c>
-      <c r="K342" s="177"/>
-      <c r="L342" s="177"/>
-      <c r="M342" s="178"/>
+      <c r="K342" s="181"/>
+      <c r="L342" s="181"/>
+      <c r="M342" s="182"/>
     </row>
     <row r="343" spans="1:13" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B343" s="8"/>
-      <c r="C343" s="179" t="s">
+      <c r="C343" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="D343" s="180"/>
-      <c r="E343" s="181"/>
+      <c r="D343" s="178"/>
+      <c r="E343" s="179"/>
       <c r="F343" s="8"/>
-      <c r="G343" s="179" t="s">
+      <c r="G343" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="H343" s="180"/>
-      <c r="I343" s="181"/>
+      <c r="H343" s="178"/>
+      <c r="I343" s="179"/>
       <c r="J343" s="8"/>
-      <c r="K343" s="179" t="s">
+      <c r="K343" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="L343" s="180"/>
-      <c r="M343" s="181"/>
+      <c r="L343" s="178"/>
+      <c r="M343" s="179"/>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="9" t="s">
@@ -33646,6 +33648,27 @@
     <row r="503" s="80" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="J260:M260"/>
+    <mergeCell ref="K261:M261"/>
+    <mergeCell ref="J342:M342"/>
+    <mergeCell ref="K343:M343"/>
+    <mergeCell ref="K179:M179"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="A12:M12"/>
     <mergeCell ref="G343:I343"/>
@@ -33662,27 +33685,6 @@
     <mergeCell ref="B260:E260"/>
     <mergeCell ref="C261:E261"/>
     <mergeCell ref="G97:I97"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="J260:M260"/>
-    <mergeCell ref="K261:M261"/>
-    <mergeCell ref="J342:M342"/>
-    <mergeCell ref="K343:M343"/>
-    <mergeCell ref="K179:M179"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
